--- a/workingfiles/json.xlsx
+++ b/workingfiles/json.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="13545" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,15 +90,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>seeder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>featuredperson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strtable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>featuredproject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shortDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pjList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -521,21 +553,37 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>9</v>
       </c>
@@ -543,20 +591,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
         <v>6</v>
       </c>
@@ -564,7 +612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>7</v>
       </c>
@@ -572,7 +620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>8</v>
       </c>
@@ -580,12 +628,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
